--- a/Breakdown report MT.xlsx
+++ b/Breakdown report MT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\anil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215EE03A-E34F-4C39-8863-3717A9BC2964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561E8F55-5330-4912-BD82-D7D6260735F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -60,13 +60,16 @@
     <t>14-01-22</t>
   </si>
   <si>
-    <t>15-01-22</t>
-  </si>
-  <si>
     <t xml:space="preserve">Remark </t>
   </si>
   <si>
     <t>IOT Module not Available</t>
+  </si>
+  <si>
+    <t>size not updated</t>
+  </si>
+  <si>
+    <t>kunal</t>
   </si>
 </sst>
 </file>
@@ -108,10 +111,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,7 +402,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,7 +435,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -452,20 +458,41 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
+      <c r="B3" s="2">
+        <v>44689</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44689</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
